--- a/histology/histology staging.xlsx
+++ b/histology/histology staging.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltroo\Desktop\clam OA comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltroo\Documents\Git\Clam-OA-project\histology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB91F57-85DD-49EC-AE9C-B7C464080177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248561D5-A907-45E3-ACED-FF1FC8430789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1044" windowWidth="7500" windowHeight="6000" xr2:uid="{95A4EDAE-9C5D-4DFF-8766-C4A63C7C67E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95A4EDAE-9C5D-4DFF-8766-C4A63C7C67E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$7:$K$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$7:$L$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$M$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$M$7:$M$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$N$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$N$7:$N$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$7:$O$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="484">
   <si>
     <t>If</t>
   </si>
@@ -1475,10 +1487,19 @@
     <t>S5</t>
   </si>
   <si>
-    <t>S3.5</t>
-  </si>
-  <si>
-    <t>S4.5</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Little F C</t>
+  </si>
+  <si>
+    <t>Little M C</t>
+  </si>
+  <si>
+    <t>manila F C</t>
+  </si>
+  <si>
+    <t>manila M C</t>
   </si>
 </sst>
 </file>
@@ -1643,65 +1664,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$7:$K$14</c:f>
+              <c:f>Sheet1!$K$7:$K$26</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>LCF</c:v>
+                  <c:v>Little F C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LCM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LTF</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LTM</c:v>
+                  <c:v>Little M C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MCF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MCM</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MTF</c:v>
+                  <c:v>manila F C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MTM</c:v>
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>manila M C</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$7:$L$14</c:f>
+              <c:f>Sheet1!$L$7:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1742,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S3.5</c:v>
+                  <c:v>S4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1738,65 +1759,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$7:$K$14</c:f>
+              <c:f>Sheet1!$K$7:$K$26</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>LCF</c:v>
+                  <c:v>Little F C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LCM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LTF</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LTM</c:v>
+                  <c:v>Little M C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MCF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MCM</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MTF</c:v>
+                  <c:v>manila F C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MTM</c:v>
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>manila M C</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$14</c:f>
+              <c:f>Sheet1!$M$7:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,201 +1829,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>S4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$7:$K$14</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>LCF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LCM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LTF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LTM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MCF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MCM</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MTF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MTM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$7:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FF1A-4AF3-8226-1D15418A656B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>S4.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$7:$K$14</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>LCF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LCM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LTF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LTM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MCF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MCM</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MTF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MTM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$7:$O$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FF1A-4AF3-8226-1D15418A656B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2023,64 +1854,64 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$7:$K$14</c:f>
+              <c:f>Sheet1!$K$7:$K$26</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>LCF</c:v>
+                  <c:v>Little F C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LCM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LTF</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LTM</c:v>
+                  <c:v>Little M C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MCF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MCM</c:v>
+                  <c:v>T</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MTF</c:v>
+                  <c:v>manila F C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MTM</c:v>
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>manila M C</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$7:$P$14</c:f>
+              <c:f>Sheet1!$N$7:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2844,16 +2675,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3178,15 +3009,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF53D67-D2B6-421B-9E84-AFBE21D569DD}">
-  <dimension ref="A1:P174"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164:G171"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3209,15 +3040,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
         <v>176</v>
@@ -3226,10 +3057,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>463</v>
@@ -3244,12 +3075,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>174</v>
@@ -3258,10 +3089,10 @@
         <v>176</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3271,27 +3102,27 @@
       </c>
       <c r="L3">
         <f>AVERAGE(G2:G14)</f>
-        <v>3.8888888888888888</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="M3">
         <f>AVERAGE(G19:G42)</f>
-        <v>3.7692307692307692</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
         <f>AVERAGE(G88:G105)</f>
-        <v>3.5</v>
+        <v>3.2307692307692308</v>
       </c>
       <c r="O3">
         <f>AVERAGE(G107:G127)</f>
-        <v>3.6111111111111112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.7647058823529411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>174</v>
@@ -3303,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3313,11 +3144,11 @@
       </c>
       <c r="L4">
         <f>AVERAGE(G44:G68)</f>
-        <v>3.2142857142857144</v>
+        <v>3.4705882352941178</v>
       </c>
       <c r="M4">
         <f>AVERAGE(G74:G85)</f>
-        <v>4</v>
+        <v>3.625</v>
       </c>
       <c r="N4">
         <f>AVERAGE(G128:G150)</f>
@@ -3325,18 +3156,18 @@
       </c>
       <c r="O4">
         <f>AVERAGE(G128:G171)</f>
-        <v>3.7352941176470589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3.7647058823529411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -3345,85 +3176,73 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>174</v>
       </c>
-      <c r="D6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
       <c r="F6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
+        <v>467</v>
       </c>
       <c r="L6" t="s">
         <v>476</v>
       </c>
       <c r="M6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N6" t="s">
-        <v>477</v>
-      </c>
-      <c r="O6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
         <v>480</v>
       </c>
-      <c r="P6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K7" t="s">
-        <v>467</v>
-      </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>175</v>
@@ -3441,65 +3260,38 @@
         <v>467</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>11</v>
-      </c>
-      <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>470</v>
-      </c>
-      <c r="K9" t="s">
-        <v>469</v>
-      </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>175</v>
@@ -3507,81 +3299,51 @@
       <c r="C10" t="s">
         <v>174</v>
       </c>
-      <c r="D10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
       <c r="F10" t="s">
         <v>467</v>
       </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
       <c r="K10" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" t="s">
+        <v>479</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>470</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>472</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>175</v>
@@ -3589,104 +3351,77 @@
       <c r="C12" t="s">
         <v>174</v>
       </c>
-      <c r="D12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
       <c r="F12" t="s">
         <v>467</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>474</v>
-      </c>
-      <c r="L12">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>467</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="M12">
+      <c r="K13" t="s">
+        <v>482</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>467</v>
+      </c>
+      <c r="K14" t="s">
+        <v>479</v>
+      </c>
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="N12">
-        <v>7</v>
-      </c>
-      <c r="O12">
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" t="s">
-        <v>470</v>
-      </c>
-      <c r="K13" t="s">
-        <v>473</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" t="s">
-        <v>470</v>
-      </c>
-      <c r="K14" t="s">
-        <v>475</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>9</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
         <v>173</v>
@@ -3707,9 +3442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>173</v>
@@ -3729,62 +3464,86 @@
       <c r="G16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>483</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>479</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>467</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
         <v>176</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>470</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
         <v>176</v>
@@ -3799,9 +3558,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>173</v>
@@ -3813,104 +3572,89 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
         <v>470</v>
       </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
         <v>176</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>470</v>
       </c>
       <c r="G22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
         <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
         <v>174</v>
       </c>
-      <c r="D24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
       <c r="F24" t="s">
-        <v>467</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
         <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
         <v>176</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>470</v>
@@ -3919,9 +3663,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>173</v>
@@ -3929,16 +3673,25 @@
       <c r="C26" t="s">
         <v>174</v>
       </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
       <c r="F26" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
         <v>174</v>
@@ -3947,30 +3700,30 @@
         <v>176</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
         <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
         <v>176</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>470</v>
@@ -3979,69 +3732,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
         <v>470</v>
       </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
         <v>174</v>
       </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
       <c r="F30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
         <v>176</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>470</v>
       </c>
       <c r="G31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>173</v>
@@ -4053,18 +3806,18 @@
         <v>176</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>470</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>173</v>
@@ -4072,36 +3825,36 @@
       <c r="C33" t="s">
         <v>174</v>
       </c>
-      <c r="D33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
       <c r="F33" t="s">
         <v>470</v>
       </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>174</v>
       </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
       <c r="F34" t="s">
-        <v>467</v>
+        <v>470</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
@@ -4113,7 +3866,7 @@
         <v>176</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>470</v>
@@ -4124,35 +3877,53 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
         <v>174</v>
       </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
       <c r="F36" t="s">
-        <v>467</v>
+        <v>470</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
         <v>174</v>
       </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
       <c r="F37" t="s">
-        <v>467</v>
+        <v>470</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
         <v>173</v>
@@ -4161,21 +3932,27 @@
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>470</v>
       </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D39" t="s">
         <v>176</v>
@@ -4184,15 +3961,15 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
         <v>173</v>
@@ -4200,25 +3977,25 @@
       <c r="C40" t="s">
         <v>174</v>
       </c>
+      <c r="D40" t="s">
+        <v>177</v>
+      </c>
       <c r="F40" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="D41" t="s">
-        <v>177</v>
-      </c>
       <c r="F41" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4240,44 +4017,44 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
         <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="F44" t="s">
         <v>469</v>
       </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
         <v>175</v>
@@ -4291,21 +4068,30 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
         <v>174</v>
       </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
       <c r="F46" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
         <v>175</v>
@@ -4313,13 +4099,22 @@
       <c r="C47" t="s">
         <v>174</v>
       </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
       <c r="F47" t="s">
         <v>469</v>
       </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
         <v>175</v>
@@ -4342,21 +4137,30 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>175</v>
@@ -4368,7 +4172,7 @@
         <v>176</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>469</v>
@@ -4379,53 +4183,35 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="F51" t="s">
-        <v>471</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s">
-        <v>471</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
         <v>175</v>
@@ -4443,12 +4229,12 @@
         <v>469</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
         <v>175</v>
@@ -4456,22 +4242,13 @@
       <c r="C54" t="s">
         <v>174</v>
       </c>
-      <c r="D54" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
       <c r="F54" t="s">
         <v>469</v>
       </c>
-      <c r="G54">
-        <v>3</v>
-      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
         <v>175</v>
@@ -4483,7 +4260,7 @@
         <v>176</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>469</v>
@@ -4494,13 +4271,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
         <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F56" t="s">
         <v>469</v>
@@ -4508,7 +4285,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
         <v>175</v>
@@ -4516,13 +4293,22 @@
       <c r="C57" t="s">
         <v>174</v>
       </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
       <c r="F57" t="s">
         <v>469</v>
       </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
         <v>175</v>
@@ -4540,27 +4326,27 @@
         <v>469</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
         <v>176</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -4568,21 +4354,21 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F60" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
         <v>175</v>
@@ -4590,13 +4376,22 @@
       <c r="C61" t="s">
         <v>174</v>
       </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
       <c r="F61" t="s">
         <v>469</v>
       </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
         <v>175</v>
@@ -4619,7 +4414,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
         <v>175</v>
@@ -4627,13 +4422,22 @@
       <c r="C63" t="s">
         <v>174</v>
       </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
       <c r="F63" t="s">
         <v>469</v>
       </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
         <v>175</v>
@@ -4656,19 +4460,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
         <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
         <v>176</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>469</v>
@@ -4679,27 +4483,27 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
         <v>176</v>
       </c>
       <c r="F66" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
         <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
         <v>176</v>
@@ -4711,26 +4515,35 @@
         <v>469</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
         <v>175</v>
@@ -4738,99 +4551,81 @@
       <c r="C69" t="s">
         <v>174</v>
       </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
       <c r="F69" t="s">
         <v>469</v>
       </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
         <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
         <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
         <v>471</v>
       </c>
-      <c r="G71">
-        <v>3</v>
-      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
         <v>174</v>
       </c>
-      <c r="D72" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
       <c r="F72" t="s">
-        <v>469</v>
-      </c>
-      <c r="G72">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="F73" t="s">
-        <v>469</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
         <v>174</v>
@@ -4839,10 +4634,10 @@
         <v>176</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -4850,13 +4645,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
         <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
         <v>176</v>
@@ -4868,15 +4663,15 @@
         <v>471</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
         <v>174</v>
@@ -4885,78 +4680,60 @@
         <v>176</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
         <v>176</v>
       </c>
-      <c r="D77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
       <c r="F77" t="s">
-        <v>469</v>
-      </c>
-      <c r="G77">
-        <v>3</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
         <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" t="s">
-        <v>176</v>
-      </c>
-      <c r="E78">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="F78" t="s">
         <v>471</v>
       </c>
-      <c r="G78">
-        <v>5</v>
-      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
         <v>176</v>
       </c>
       <c r="F79" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
         <v>173</v>
@@ -4964,28 +4741,19 @@
       <c r="C80" t="s">
         <v>174</v>
       </c>
-      <c r="D80" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
       <c r="F80" t="s">
         <v>471</v>
       </c>
-      <c r="G80">
-        <v>4</v>
-      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -4994,18 +4762,18 @@
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
         <v>174</v>
@@ -5014,21 +4782,21 @@
         <v>176</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
         <v>174</v>
@@ -5037,27 +4805,36 @@
         <v>176</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
         <v>174</v>
       </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
       <c r="F84" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -5099,47 +4876,47 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
         <v>174</v>
       </c>
-      <c r="D87" t="s">
-        <v>176</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
       <c r="F87" t="s">
-        <v>474</v>
-      </c>
-      <c r="G87">
-        <v>5</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
         <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>472</v>
       </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
         <v>174</v>
@@ -5148,35 +4925,44 @@
         <v>176</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
         <v>174</v>
@@ -5188,92 +4974,98 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>474</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
         <v>176</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>472</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
         <v>174</v>
       </c>
-      <c r="D93" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
       <c r="F93" t="s">
-        <v>474</v>
-      </c>
-      <c r="G93">
-        <v>3</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
         <v>174</v>
       </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
       <c r="F94" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C96" t="s">
         <v>174</v>
@@ -5282,24 +5074,24 @@
         <v>176</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
         <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D97" t="s">
         <v>176</v>
@@ -5316,96 +5108,75 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
         <v>174</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>474</v>
-      </c>
-      <c r="G98">
-        <v>4</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
-      </c>
-      <c r="D99" t="s">
-        <v>176</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>474</v>
-      </c>
-      <c r="G99">
-        <v>4</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
-      </c>
-      <c r="D100" t="s">
-        <v>176</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D101" t="s">
         <v>176</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
         <v>175</v>
@@ -5417,7 +5188,7 @@
         <v>176</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>472</v>
@@ -5428,13 +5199,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
         <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D103" t="s">
         <v>176</v>
@@ -5445,10 +5216,13 @@
       <c r="F103" t="s">
         <v>472</v>
       </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
         <v>175</v>
@@ -5466,15 +5240,15 @@
         <v>472</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
         <v>174</v>
@@ -5483,10 +5257,10 @@
         <v>176</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -5494,33 +5268,42 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
         <v>174</v>
       </c>
+      <c r="D106" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
       <c r="F106" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
         <v>173</v>
       </c>
       <c r="C107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D107" t="s">
         <v>176</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
         <v>474</v>
@@ -5531,7 +5314,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
         <v>173</v>
@@ -5539,22 +5322,13 @@
       <c r="C108" t="s">
         <v>176</v>
       </c>
-      <c r="D108" t="s">
-        <v>176</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
       <c r="F108" t="s">
         <v>474</v>
       </c>
-      <c r="G108">
-        <v>5</v>
-      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
         <v>173</v>
@@ -5566,7 +5340,7 @@
         <v>176</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="s">
         <v>474</v>
@@ -5577,7 +5351,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
         <v>173</v>
@@ -5595,61 +5369,43 @@
         <v>474</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
         <v>174</v>
       </c>
-      <c r="D111" t="s">
-        <v>176</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
       <c r="F111" t="s">
-        <v>472</v>
-      </c>
-      <c r="G111">
-        <v>3</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
-      </c>
-      <c r="D112" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="F112" t="s">
-        <v>472</v>
-      </c>
-      <c r="G112">
-        <v>3</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s">
         <v>174</v>
@@ -5658,24 +5414,24 @@
         <v>176</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
         <v>176</v>
@@ -5684,27 +5440,27 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
         <v>173</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
         <v>176</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
         <v>474</v>
@@ -5715,38 +5471,50 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B117" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C117" t="s">
         <v>174</v>
       </c>
+      <c r="D117" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
       <c r="F117" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="G117">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
         <v>173</v>
@@ -5764,24 +5532,24 @@
         <v>474</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
         <v>173</v>
       </c>
       <c r="C119" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D119" t="s">
         <v>176</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
         <v>474</v>
@@ -5792,7 +5560,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B120" t="s">
         <v>173</v>
@@ -5810,12 +5578,12 @@
         <v>474</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
         <v>173</v>
@@ -5833,12 +5601,12 @@
         <v>474</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
         <v>173</v>
@@ -5861,47 +5629,56 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C123" t="s">
         <v>174</v>
       </c>
+      <c r="D123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
       <c r="F123" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D124" t="s">
         <v>176</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
         <v>174</v>
@@ -5913,18 +5690,18 @@
         <v>3</v>
       </c>
       <c r="F125" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C126" t="s">
         <v>176</v>
@@ -5936,18 +5713,18 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C127" t="s">
         <v>174</v>
@@ -5959,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -5967,10 +5744,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C128" t="s">
         <v>174</v>
@@ -5979,41 +5756,41 @@
         <v>176</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D129" t="s">
         <v>176</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B130" t="s">
         <v>175</v>
@@ -6025,7 +5802,7 @@
         <v>176</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F130" t="s">
         <v>473</v>
@@ -6036,19 +5813,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B131" t="s">
         <v>175</v>
       </c>
       <c r="C131" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D131" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F131" t="s">
         <v>473</v>
@@ -6059,30 +5836,30 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B132" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C132" t="s">
         <v>174</v>
       </c>
       <c r="D132" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>175</v>
@@ -6090,25 +5867,16 @@
       <c r="C133" t="s">
         <v>174</v>
       </c>
-      <c r="D133" t="s">
-        <v>179</v>
-      </c>
-      <c r="E133">
-        <v>3</v>
-      </c>
       <c r="F133" t="s">
         <v>473</v>
       </c>
-      <c r="G133">
-        <v>4</v>
-      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C134" t="s">
         <v>174</v>
@@ -6120,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G134">
         <v>4</v>
@@ -6128,21 +5896,30 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
         <v>174</v>
       </c>
+      <c r="D135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
       <c r="F135" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="G135">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B136" t="s">
         <v>175</v>
@@ -6165,95 +5942,113 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C137" t="s">
         <v>174</v>
       </c>
+      <c r="D137" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
       <c r="F137" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C138" t="s">
         <v>174</v>
       </c>
       <c r="D138" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C139" t="s">
         <v>174</v>
       </c>
       <c r="F139" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
         <v>175</v>
       </c>
       <c r="C140" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="D140" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
       </c>
       <c r="F140" t="s">
         <v>473</v>
       </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C141" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D141" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E141">
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B142" t="s">
         <v>175</v>
@@ -6261,45 +6056,36 @@
       <c r="C142" t="s">
         <v>174</v>
       </c>
-      <c r="D142" t="s">
-        <v>179</v>
-      </c>
-      <c r="E142">
-        <v>3</v>
-      </c>
       <c r="F142" t="s">
         <v>473</v>
       </c>
-      <c r="G142">
-        <v>4</v>
-      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C143" t="s">
         <v>174</v>
       </c>
       <c r="D143" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E143">
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
         <v>175</v>
@@ -6307,22 +6093,13 @@
       <c r="C144" t="s">
         <v>174</v>
       </c>
-      <c r="D144" t="s">
-        <v>179</v>
-      </c>
-      <c r="E144">
-        <v>4</v>
-      </c>
       <c r="F144" t="s">
         <v>473</v>
       </c>
-      <c r="G144">
-        <v>4</v>
-      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
         <v>175</v>
@@ -6331,7 +6108,7 @@
         <v>174</v>
       </c>
       <c r="D145" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -6345,68 +6122,68 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
         <v>174</v>
       </c>
       <c r="D146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G146">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C147" t="s">
         <v>174</v>
       </c>
       <c r="D147" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B148" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s">
         <v>174</v>
       </c>
       <c r="D148" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F148" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -6414,7 +6191,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B149" t="s">
         <v>175</v>
@@ -6422,36 +6199,36 @@
       <c r="C149" t="s">
         <v>174</v>
       </c>
-      <c r="D149" t="s">
-        <v>176</v>
-      </c>
-      <c r="E149">
-        <v>3</v>
-      </c>
       <c r="F149" t="s">
         <v>473</v>
       </c>
-      <c r="G149">
-        <v>3</v>
-      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B150" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s">
         <v>174</v>
       </c>
+      <c r="D150" t="s">
+        <v>176</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
       <c r="F150" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="G150">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B151" t="s">
         <v>173</v>
@@ -6463,18 +6240,18 @@
         <v>176</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
         <v>475</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B152" t="s">
         <v>173</v>
@@ -6497,7 +6274,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B153" t="s">
         <v>173</v>
@@ -6506,7 +6283,7 @@
         <v>174</v>
       </c>
       <c r="D153" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E153">
         <v>3</v>
@@ -6520,7 +6297,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
         <v>173</v>
@@ -6534,82 +6311,73 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B155" t="s">
         <v>173</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
-      </c>
-      <c r="D155" t="s">
-        <v>176</v>
-      </c>
-      <c r="E155">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="F155" t="s">
         <v>475</v>
       </c>
-      <c r="G155">
-        <v>3</v>
-      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C156" t="s">
         <v>174</v>
       </c>
       <c r="D156" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B157" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C157" t="s">
         <v>174</v>
       </c>
       <c r="F157" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
         <v>176</v>
       </c>
       <c r="D158" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E158">
         <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -6617,44 +6385,53 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C159" t="s">
         <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E159">
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B160" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C160" t="s">
         <v>174</v>
       </c>
+      <c r="D160" t="s">
+        <v>179</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
       <c r="F160" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+      <c r="G160">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B161" t="s">
         <v>173</v>
@@ -6663,10 +6440,10 @@
         <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F161" t="s">
         <v>475</v>
@@ -6677,47 +6454,47 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B162" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C162" t="s">
         <v>174</v>
       </c>
       <c r="D162" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C163" t="s">
         <v>174</v>
       </c>
       <c r="F163" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C164" t="s">
         <v>174</v>
@@ -6726,10 +6503,10 @@
         <v>176</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -6737,10 +6514,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C165" t="s">
         <v>174</v>
@@ -6749,18 +6526,18 @@
         <v>176</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F165" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G165">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B166" t="s">
         <v>173</v>
@@ -6772,7 +6549,7 @@
         <v>176</v>
       </c>
       <c r="E166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F166" t="s">
         <v>475</v>
@@ -6783,7 +6560,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B167" t="s">
         <v>173</v>
@@ -6791,28 +6568,19 @@
       <c r="C167" t="s">
         <v>174</v>
       </c>
-      <c r="D167" t="s">
-        <v>176</v>
-      </c>
-      <c r="E167">
-        <v>3</v>
-      </c>
       <c r="F167" t="s">
         <v>475</v>
       </c>
-      <c r="G167">
-        <v>4</v>
-      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D168" t="s">
         <v>176</v>
@@ -6821,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -6829,10 +6597,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C169" t="s">
         <v>174</v>
@@ -6844,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G169">
         <v>4</v>
@@ -6852,24 +6620,33 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
         <v>174</v>
       </c>
+      <c r="D170" t="s">
+        <v>176</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
       <c r="F170" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C171" t="s">
         <v>174</v>
@@ -6878,10 +6655,10 @@
         <v>176</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -6899,7 +6676,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G171">
-    <sortCondition ref="A2:A171"/>
+    <sortCondition ref="F2:F171"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6912,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AD1E10-3D7C-4A6A-B2F7-C4A0836BD2B6}">
   <dimension ref="B1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50:H54"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="K65" sqref="K2:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
